--- a/EfficiencyStudy/results/powhegMiNNLO/report_Mu17Leg1_systematics.xlsx
+++ b/EfficiencyStudy/results/powhegMiNNLO/report_Mu17Leg1_systematics.xlsx
@@ -2852,52 +2852,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.881</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.006 (0.746%)</t>
+          <t>0.006 (0.692%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.871 (-0.080%)</t>
+          <t>0.871 (-1.158%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.872 (0.069%)</t>
+          <t>0.884 (0.341%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.870 (-0.207%)</t>
+          <t>0.877 (-0.386%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.871 (-0.011%)</t>
+          <t>0.881 (-0.023%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.870 (-0.184%)</t>
+          <t>0.879 (-0.227%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.871 (-0.080%)</t>
+          <t>0.880 (-0.068%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.872 (0.023%)</t>
+          <t>0.881 (0.034%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.007 (0.81%)</t>
+          <t>0.013 (1.46%)</t>
         </is>
       </c>
     </row>
@@ -5296,52 +5296,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.932</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.002 (0.236%)</t>
+          <t>0.002 (0.225%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.935 (0.322%)</t>
+          <t>0.935 (-0.064%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.930 (-0.204%)</t>
+          <t>0.935 (-0.043%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.933 (0.107%)</t>
+          <t>0.936 (0.043%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.932 (0.011%)</t>
+          <t>0.935 (0.000%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.932 (-0.011%)</t>
+          <t>0.935 (0.000%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.931 (-0.021%)</t>
+          <t>0.935 (-0.011%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.931 (-0.064%)</t>
+          <t>0.935 (-0.064%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.004 (0.47%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.932</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7686,42 +7686,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.932 (0.237%)</t>
+          <t>0.932 (-0.032%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.928 (-0.140%)</t>
+          <t>0.932 (-0.021%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.930 (0.075%)</t>
+          <t>0.932 (0.032%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.929 (0.000%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.929 (-0.022%)</t>
+          <t>0.932 (-0.011%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -10056,52 +10056,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.002</t>
+          <t>1.004</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.002 (0.236%)</t>
+          <t>0.002 (0.225%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.003 (0.085%)</t>
+          <t>1.003 (-0.032%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.002 (-0.064%)</t>
+          <t>1.003 (-0.021%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.003 (0.032%)</t>
+          <t>1.004 (0.011%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.002 (0.011%)</t>
+          <t>1.004 (0.000%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.002 (0.011%)</t>
+          <t>1.004 (0.011%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.002 (-0.011%)</t>
+          <t>1.003 (-0.011%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.002 (-0.054%)</t>
+          <t>1.003 (-0.064%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.003 (0.27%)</t>
+          <t>0.002 (0.24%)</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.953</t>
+          <t>0.956</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -12542,42 +12542,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.955 (0.241%)</t>
+          <t>0.955 (-0.094%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.954 (0.063%)</t>
+          <t>0.958 (0.188%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.953 (0.021%)</t>
+          <t>0.956 (-0.031%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.953 (-0.010%)</t>
+          <t>0.956 (-0.010%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.953 (-0.021%)</t>
+          <t>0.956 (-0.042%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.953 (-0.042%)</t>
+          <t>0.956 (-0.021%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.953 (0.021%)</t>
+          <t>0.957 (0.021%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.002 (0.26%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -15008,52 +15008,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.914</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.007 (0.746%)</t>
+          <t>0.006 (0.692%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.911 (-0.321%)</t>
+          <t>0.911 (-1.065%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.914 (0.006%)</t>
+          <t>0.923 (0.152%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.912 (-0.228%)</t>
+          <t>0.918 (-0.355%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.914 (-0.001%)</t>
+          <t>0.921 (-0.012%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.913 (-0.163%)</t>
+          <t>0.919 (-0.185%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.914 (-0.038%)</t>
+          <t>0.921 (-0.047%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.914 (0.002%)</t>
+          <t>0.921 (0.013%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.008 (0.86%)</t>
+          <t>0.012 (1.34%)</t>
         </is>
       </c>
     </row>
@@ -17484,52 +17484,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.938</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.004 (0.481%)</t>
+          <t>0.004 (0.448%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.938 (0.374%)</t>
+          <t>0.938 (0.000%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.936 (0.086%)</t>
+          <t>0.940 (0.181%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.938 (0.353%)</t>
+          <t>0.941 (0.309%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.935 (0.032%)</t>
+          <t>0.939 (0.021%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.934 (-0.139%)</t>
+          <t>0.937 (-0.128%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.935 (0.032%)</t>
+          <t>0.939 (0.032%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.935 (-0.021%)</t>
+          <t>0.938 (-0.021%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.007 (0.72%)</t>
+          <t>0.006 (0.59%)</t>
         </is>
       </c>
     </row>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.963</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -19938,42 +19938,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.963 (0.187%)</t>
+          <t>0.963 (-0.021%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.961 (-0.042%)</t>
+          <t>0.964 (0.031%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.962 (0.073%)</t>
+          <t>0.964 (0.042%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.960 (-0.094%)</t>
+          <t>0.962 (-0.093%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.962 (0.052%)</t>
+          <t>0.964 (0.052%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.961 (0.000%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -22372,52 +22372,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>0.974</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.005 (0.481%)</t>
+          <t>0.004 (0.448%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.974 (0.187%)</t>
+          <t>0.974 (0.021%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.974 (0.127%)</t>
+          <t>0.976 (0.150%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.975 (0.280%)</t>
+          <t>0.977 (0.267%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.973 (0.032%)</t>
+          <t>0.974 (0.021%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.972 (-0.045%)</t>
+          <t>0.974 (-0.034%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.972 (-0.020%)</t>
+          <t>0.974 (-0.020%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.972 (-0.021%)</t>
+          <t>0.974 (-0.021%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.006 (0.60%)</t>
+          <t>0.005 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -23776,7 +23776,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.005 (-1.923%)</t>
+          <t>0.005 (1.923%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -24816,52 +24816,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.894</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.004 (0.391%)</t>
+          <t>0.003 (0.367%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.900 (0.615%)</t>
+          <t>0.900 (-0.022%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.892 (-0.201%)</t>
+          <t>0.901 (0.100%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.895 (0.134%)</t>
+          <t>0.900 (0.022%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.894 (-0.034%)</t>
+          <t>0.900 (-0.033%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.893 (-0.157%)</t>
+          <t>0.899 (-0.078%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.894 (-0.034%)</t>
+          <t>0.900 (-0.022%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.894 (-0.056%)</t>
+          <t>0.899 (-0.044%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.007 (0.79%)</t>
+          <t>0.004 (0.39%)</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.910</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -27270,42 +27270,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.910 (0.375%)</t>
+          <t>0.910 (-0.033%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.905 (-0.199%)</t>
+          <t>0.910 (-0.033%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.907 (0.033%)</t>
+          <t>0.910 (-0.044%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.907 (-0.011%)</t>
+          <t>0.910 (-0.022%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.905 (-0.143%)</t>
+          <t>0.909 (-0.110%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.910 (0.320%)</t>
+          <t>0.910 (0.000%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.907 (0.022%)</t>
+          <t>0.911 (0.011%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.005 (0.55%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -28664,12 +28664,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.133 (0.256%)</t>
+          <t>1.178 (4.188%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.070 (6.23%)</t>
+          <t>0.085 (7.50%)</t>
         </is>
       </c>
     </row>
@@ -29704,52 +29704,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.986</t>
+          <t>0.988</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.004 (0.391%)</t>
+          <t>0.004 (0.367%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.988 (0.239%)</t>
+          <t>0.988 (0.011%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.986 (-0.003%)</t>
+          <t>0.990 (0.133%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.987 (0.101%)</t>
+          <t>0.989 (0.066%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.986 (-0.023%)</t>
+          <t>0.988 (-0.011%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.986 (-0.013%)</t>
+          <t>0.989 (0.032%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.983 (-0.352%)</t>
+          <t>0.988 (-0.022%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.985 (-0.078%)</t>
+          <t>0.988 (-0.055%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.006 (0.59%)</t>
+          <t>0.004 (0.40%)</t>
         </is>
       </c>
     </row>
